--- a/biology/Microbiologie/Gastrocirrhidae/Gastrocirrhidae.xlsx
+++ b/biology/Microbiologie/Gastrocirrhidae/Gastrocirrhidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gastrocirrhidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Euplotida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Gastrocirrhus, composé du préfixe gastro- (du grec ancien γαστρο / gastro, « estomac, ventre »), et du suffixe -cirrh (variante de cirre), du latin -cirrus, « touffe de cheveu, cil, poil », littéralement « cils sur le ventre », en référence à la forme de l'organisme.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Gastrocirrhus a un corps, en forme de coupe et circulaire en coupe transversale. On note la présence de cirres transversaux en forme de U ; l'absence de cirres marginaux gauches et de cirres caudaux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Gastrocirrhus a un corps, en forme de coupe et circulaire en coupe transversale. On note la présence de cirres transversaux en forme de U ; l'absence de cirres marginaux gauches et de cirres caudaux.
 </t>
         </is>
       </c>
@@ -573,21 +589,23 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (11 février 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (11 février 2023) :
 Cirrhogaster Ozaki &amp; Yagiu, 1942
 Cytharoides Tuffrau, 1975
 Euplotidium Noland, 1937
 Euplotoides Borror &amp; Hill, 1995
 Euplotopsis Borror &amp; Hill, 1995
 Faureia Tucolesco, 1962
-Gastrocirrhus Lepsi, 1928[3] genre type synonyme : Cirrhogaster
+Gastrocirrhus Lepsi, 1928 genre type synonyme : Cirrhogaster
 Paraeuplotidium Lei, Choi &amp; Xu, 2002
-Selon The Taxonomicon  (11 février 2023)[4] :
+Selon The Taxonomicon  (11 février 2023) :
 Gastrocirrhus Lepsi, 1928
 Euplotidium Noland, 1937
-Cytharoides Tuffrau, 1974[1975]
+Cytharoides Tuffrau, 1974
 Swedmarkia Dragesco, 1954</t>
         </is>
       </c>
@@ -616,9 +634,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Gastrocirrhidae Fauré-Fremiet, 1961[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Gastrocirrhidae Fauré-Fremiet, 1961.
 </t>
         </is>
       </c>
